--- a/basic_scoping/amsbasic-www.georgiapower.com.xlsx
+++ b/basic_scoping/amsbasic-www.georgiapower.com.xlsx
@@ -13940,12 +13940,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-advises-customers-on-how-to-stay-safe-save-energy.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/ease.html</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -13960,19 +13960,19 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Template 493</t>
+          <t>Template 612</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1484)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Columns (columns2072), Columns (columns2073), Columns (columns2074), Columns (columns2075), Cards (cards2076), Accordion (accordion2077), hero2078, Cards (cards2079)</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-host-hurricane-preparedness-summit.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/energy-assessmentsolutionseasp.html</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -13992,19 +13992,19 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Template 40</t>
+          <t>Template 614</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), unknown</t>
+          <t>Header (header1), Columns (columns23), Table (bordered, tableBordered2083), Columns (columns2084), Columns (columns2085), Cards (cards2086)</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-makes-final-preparations-ahead-of-tropical-storm-i.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/home-electric-review.html</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -14024,24 +14024,24 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Template 40</t>
+          <t>Template 615</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), unknown</t>
+          <t>Header (header1), Columns (columns23), Embed (embedVideo1016), hero2087, Columns (columns2088), Accordion (accordion2089)</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-marks-50-years-of-safe-digging-with-georgia811.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/home-energy-checkupandauditrequest.html</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14056,24 +14056,24 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Template 494</t>
+          <t>Template 616</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1487)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero2090</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-offers-resources-safety-tips-during-severe-weather-preparedness-week.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/home-energy-improvementprogram-multifamily.html</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14088,19 +14088,19 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Template 495</t>
+          <t>Template 617</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1488</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Tabs (tabs2091), Columns (columns2092), Columns (columns2093), Accordion (accordion2094), Columns (columns2095), hero2096</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-prepared-for-winter-freeze-this-week.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/home-energy-improvementprogram-multifamily.html?cid=print-collateral_owned_multifamily_heip_multifamilyimprovements-vanity</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -14120,24 +14120,24 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Template 40</t>
+          <t>Template 618</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), unknown</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero2097, Columns (columns2098), Columns (columns2099), Accordion (accordion2100), Columns (columns2101), hero2102</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-ready-to-respond-to-severe-weather-tuesday.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/home-energy-improvementprogram.html</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14152,24 +14152,24 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Template 496</t>
+          <t>Template 619</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1490)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero589, Columns (columns2103), Columns (columns2104), Columns (columns2105), Columns (columns2106), Columns (columns2107), Table (striped, bordered, tableStripedBordered2108), hero2109, Cards (cards2110), Columns (columns2111), Columns (columns2112), Accordion (accordion2113), Accordion (accordion2114)</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-ready-to-respond-to-tropical-storm-idalia.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/lighting-program.html</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14184,24 +14184,24 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Template 497</t>
+          <t>Template 622</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1491)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero2123, Embed (embedVideo2124), Columns (columns2125), Columns (columns2126), Accordion (accordion2127)</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-responding-to-outages-across-the-state-caused-by-high-winds.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/manufactured-homes-prefab.html</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -14216,24 +14216,24 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Template 498</t>
+          <t>Template 623</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Cards (cards1492)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Embed (embedVideo2128), Columns (columns2129)</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-restores-power-to-315000-plus-customers-impacted-by-severe-thunderstorms-june25-and-june26.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/refrigerator-recycling.html</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -14248,24 +14248,24 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Template 499</t>
+          <t>Template 624</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1493)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero2078, Columns (columns2130), hero2131, Columns (columns2132), Columns (columns2133), Columns (columns2134), hero2135</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-restores-service-to-200000-impacted-customers-monday-after-severe-winter-weather-crosses-state.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/residential-rebates.html</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -14280,19 +14280,19 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Template 500</t>
+          <t>Template 626</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1494)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Embed (embedVideo2137), Cards (cards2138)</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-working-to-repair-damage-caused-by-severe-high-winds-and-extremely-low-temperatures.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/rise.html</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -14312,24 +14312,24 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Template 40</t>
+          <t>Template 627</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), unknown</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns2139), Columns (columns2140), Columns (columns2141), Cards (cardsNoImages2142), Accordion (accordion2143), hero2144</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/ease.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-advises-customers-on-how-to-stay-safe-save-energy.html</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -14344,19 +14344,19 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Template 612</t>
+          <t>Template 493</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Columns (columns2072), Columns (columns2073), Columns (columns2074), Columns (columns2075), Cards (cards2076), Accordion (accordion2077), hero2078, Cards (cards2079)</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1484)</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/energy-assessmentsolutionseasp.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-host-hurricane-preparedness-summit.html</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -14376,19 +14376,19 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Template 614</t>
+          <t>Template 40</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Table (bordered, tableBordered2083), Columns (columns2084), Columns (columns2085), Cards (cards2086)</t>
+          <t>Header (header1), Columns (columns23), unknown</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/home-electric-review.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-makes-final-preparations-ahead-of-tropical-storm-i.html</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -14408,24 +14408,24 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Template 615</t>
+          <t>Template 40</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Embed (embedVideo1016), hero2087, Columns (columns2088), Accordion (accordion2089)</t>
+          <t>Header (header1), Columns (columns23), unknown</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/home-energy-checkupandauditrequest.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-marks-50-years-of-safe-digging-with-georgia811.html</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -14440,24 +14440,24 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Template 616</t>
+          <t>Template 494</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero2090</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1487)</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/home-energy-improvementprogram-multifamily.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-offers-resources-safety-tips-during-severe-weather-preparedness-week.html</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -14472,19 +14472,19 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Template 617</t>
+          <t>Template 495</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Tabs (tabs2091), Columns (columns2092), Columns (columns2093), Accordion (accordion2094), Columns (columns2095), hero2096</t>
+          <t>Header (header1), Columns (columns23), hero1488</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/home-energy-improvementprogram-multifamily.html?cid=print-collateral_owned_multifamily_heip_multifamilyimprovements-vanity</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-prepared-for-winter-freeze-this-week.html</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -14504,24 +14504,24 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Template 618</t>
+          <t>Template 40</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero2097, Columns (columns2098), Columns (columns2099), Accordion (accordion2100), Columns (columns2101), hero2102</t>
+          <t>Header (header1), Columns (columns23), unknown</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/home-energy-improvementprogram.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-ready-to-respond-to-severe-weather-tuesday.html</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -14536,24 +14536,24 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Template 619</t>
+          <t>Template 496</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero589, Columns (columns2103), Columns (columns2104), Columns (columns2105), Columns (columns2106), Columns (columns2107), Table (striped, bordered, tableStripedBordered2108), hero2109, Cards (cards2110), Columns (columns2111), Columns (columns2112), Accordion (accordion2113), Accordion (accordion2114)</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1490)</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/lighting-program.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-ready-to-respond-to-tropical-storm-idalia.html</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -14568,24 +14568,24 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Template 622</t>
+          <t>Template 497</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero2123, Embed (embedVideo2124), Columns (columns2125), Columns (columns2126), Accordion (accordion2127)</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1491)</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/manufactured-homes-prefab.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-responding-to-outages-across-the-state-caused-by-high-winds.html</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -14600,24 +14600,24 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Template 623</t>
+          <t>Template 498</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Embed (embedVideo2128), Columns (columns2129)</t>
+          <t>Header (header1), Columns (columns23), Cards (cards1492)</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/refrigerator-recycling.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-restores-power-to-315000-plus-customers-impacted-by-severe-thunderstorms-june25-and-june26.html</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -14632,24 +14632,24 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Template 624</t>
+          <t>Template 499</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero2078, Columns (columns2130), hero2131, Columns (columns2132), Columns (columns2133), Columns (columns2134), hero2135</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1493)</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/residential-rebates.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-restores-service-to-200000-impacted-customers-monday-after-severe-winter-weather-crosses-state.html</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -14664,19 +14664,19 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Template 626</t>
+          <t>Template 500</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Embed (embedVideo2137), Cards (cards2138)</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1494)</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs/rise.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-&amp;-safety/georgia-power-working-to-repair-damage-caused-by-severe-high-winds-and-extremely-low-temperatures.html</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -14696,12 +14696,12 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Template 627</t>
+          <t>Template 40</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns2139), Columns (columns2140), Columns (columns2141), Cards (cardsNoImages2142), Accordion (accordion2143), hero2144</t>
+          <t>Header (header1), Columns (columns23), unknown</t>
         </is>
       </c>
     </row>
@@ -15028,7 +15028,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/flatbill.html</t>
+          <t>https://www.georgiapower.com/news-hub/archive.html</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -15048,24 +15048,24 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Template 569</t>
+          <t>Template 203</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns1875), Columns (columns1876), Embed (embedVideo1877), Cards (cards1878)</t>
+          <t>Header (header1), Columns (columns23), hero1069, Cards (cards1070), Cards (cards1071)</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/night-week-savings.html</t>
+          <t>https://www.georgiapower.com/news-hub/community.html</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15080,19 +15080,19 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Template 570</t>
+          <t>Template 302</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Columns (columns1879)</t>
+          <t>Header (header1), Columns (columns23), hero1221, Cards (cards1222), Cards (cards1223)</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/nights-weekends.html</t>
+          <t>https://www.georgiapower.com/news-hub/company-news.html</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -15112,19 +15112,19 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Template 571</t>
+          <t>Template 349</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns1880), Columns (columns1881), Columns (columns1882)</t>
+          <t>Header (header1), Columns (columns23), hero1279, Cards (cards1280), Cards (cards1281)</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/pay-by-day.html</t>
+          <t>https://www.georgiapower.com/news-hub/electric-living.html</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -15144,19 +15144,19 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Template 572</t>
+          <t>Template 377</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Cards (cards1883), Columns (columns1884), Columns (columns1885), Cards (cardsNoImages1886), Accordion (accordion1887), hero1888</t>
+          <t>Header (header1), Columns (columns23), hero1318, Cards (cards1319), Cards (cards1320)</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/plug-in-ev.html</t>
+          <t>https://www.georgiapower.com/news-hub/energy-savings.html</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -15176,19 +15176,19 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Template 574</t>
+          <t>Template 389</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns1890), hero1891, Carousel (carousel1892)</t>
+          <t>Header (header1), Columns (columns23), hero1334, Cards (cards1335), Cards (cards1336)</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/prepay.html</t>
+          <t>https://www.georgiapower.com/news-hub/innovation.html</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -15208,19 +15208,19 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Template 575</t>
+          <t>Template 402</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Tabs (tabs1893), hero1894, Columns (columns1895), Columns (columns1896), Accordion (accordion1897)</t>
+          <t>Header (header1), Columns (columns23), hero1350, Cards (cards1351), Cards (cards1352)</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/rate-advisor.html</t>
+          <t>https://www.georgiapower.com/news-hub/media-resources.html</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -15240,19 +15240,19 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Template 580</t>
+          <t>Template 411</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Columns (columns27), hero1916, unknown</t>
+          <t>Header (header1), hero5, Columns (columns23), Cards (cards1361), Columns (columns1362)</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/residential-service.html</t>
+          <t>https://www.georgiapower.com/news-hub/press-releases.html</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -15272,19 +15272,19 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Template 581</t>
+          <t>Template 412</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns12), Columns (columns23), Columns (columns1918), hero1919, hero1920, Cards (cards1921)</t>
+          <t>Header (header1), Columns (columns23), hero1363, Cards (cards1364), Cards (cards1365)</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/smart-usage.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-safety.html</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -15304,19 +15304,19 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Template 582</t>
+          <t>Template 501</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns1922), Columns (columns1923), Embed (embedVideo1924), Cards (cards1925)</t>
+          <t>Header (header1), Columns (columns23), hero1496, Cards (cards1497), Cards (cards1498)</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/archive.html</t>
+          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/flatbill.html</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -15336,24 +15336,24 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Template 203</t>
+          <t>Template 569</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1069, Cards (cards1070), Cards (cards1071)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns1875), Columns (columns1876), Embed (embedVideo1877), Cards (cards1878)</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/community.html</t>
+          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/night-week-savings.html</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -15368,19 +15368,19 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Template 302</t>
+          <t>Template 570</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1221, Cards (cards1222), Cards (cards1223)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Columns (columns1879)</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/company-news.html</t>
+          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/nights-weekends.html</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -15400,19 +15400,19 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Template 349</t>
+          <t>Template 571</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1279, Cards (cards1280), Cards (cards1281)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns1880), Columns (columns1881), Columns (columns1882)</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/electric-living.html</t>
+          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/pay-by-day.html</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -15432,19 +15432,19 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Template 377</t>
+          <t>Template 572</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1318, Cards (cards1319), Cards (cards1320)</t>
+          <t>Header (header1), hero5, Columns (columns23), Cards (cards1883), Columns (columns1884), Columns (columns1885), Cards (cardsNoImages1886), Accordion (accordion1887), hero1888</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/energy-savings.html</t>
+          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/plug-in-ev.html</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -15464,19 +15464,19 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Template 389</t>
+          <t>Template 574</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1334, Cards (cards1335), Cards (cards1336)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns1890), hero1891, Carousel (carousel1892)</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/innovation.html</t>
+          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/prepay.html</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -15496,19 +15496,19 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Template 402</t>
+          <t>Template 575</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1350, Cards (cards1351), Cards (cards1352)</t>
+          <t>Header (header1), hero5, Columns (columns23), Tabs (tabs1893), hero1894, Columns (columns1895), Columns (columns1896), Accordion (accordion1897)</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/media-resources.html</t>
+          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/rate-advisor.html</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -15528,19 +15528,19 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Template 411</t>
+          <t>Template 580</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Cards (cards1361), Columns (columns1362)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Columns (columns27), hero1916, unknown</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/press-releases.html</t>
+          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/residential-service.html</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -15560,19 +15560,19 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Template 412</t>
+          <t>Template 581</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1363, Cards (cards1364), Cards (cards1365)</t>
+          <t>Header (header1), hero5, Columns (columns12), Columns (columns23), Columns (columns1918), hero1919, hero1920, Cards (cards1921)</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-safety.html</t>
+          <t>https://www.georgiapower.com/residential/billing-and-rate-plans/pricing-and-rate-plans/smart-usage.html</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -15592,19 +15592,19 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Template 501</t>
+          <t>Template 582</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1496, Cards (cards1497), Cards (cards1498)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns1922), Columns (columns1923), Embed (embedVideo1924), Cards (cards1925)</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-bowen.html</t>
+          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/austin-road.html</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -15624,24 +15624,24 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Template 184</t>
+          <t>Template 49</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), unknown, Embed (embedVideo924), Tabs (tabs925), Columns (columns926), hero927, Columns (columns928), Cards (cardsNoImages929), Accordion (accordion930), hero931, Columns (columns932)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns332)</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-hammond.html</t>
+          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/briarlake.html</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -15656,24 +15656,24 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Template 185</t>
+          <t>Template 50</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Cards (cardsNoImages933), Columns (columns934), Tabs (tabs935), Embed (embedVideo936), Columns (columns937), Embed (embedVideo938), Accordion (accordion939), unknown, Columns (columns941), unknown, Accordion (accordion943), hero944, Accordion (accordion945)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns333)</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-mcdonough.html</t>
+          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/grid-investment-program.html</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -15688,24 +15688,24 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Template 186</t>
+          <t>Template 51</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Embed (embedVideo946), Columns (columns947), Columns (columns948), Embed (embedSocial949), Accordion (accordion950), hero951, Accordion (accordion952), Embed (embedVideo953), Accordion (accordion954), Cards (cards955), Cards (cardsNoImages956)</t>
+          <t>Header (header1), hero5, Columns (columns23), Embed (embedVideo334), hero335, hero336, hero337, Columns (columns338), Accordion (accordion339), Accordion (accordion340), hero341</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-mcintosh.html</t>
+          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/meter-upgrade.html</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -15720,24 +15720,24 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Template 187</t>
+          <t>Template 55</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), hero957, Accordion (accordion958), Columns (columns959), hero960, Columns (columns961), Cards (cardsNoImages962), Accordion (accordion963), unknown, Accordion (accordion965), Columns (columns966)</t>
+          <t>Header (header1), hero5, Columns (columns23), Table (bordered, tableBordered355), hero356, unknown, Columns (columns358)</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-mcmanus.html</t>
+          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/northwest-substation.html</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -15752,19 +15752,19 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Template 188</t>
+          <t>Template 56</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Cards (cardsNoImages967), Accordion (accordion968), Cards (cardsNoImages969), Columns (columns970), Columns (columns971)</t>
+          <t>Header (header1), hero5, Columns (columns23), Accordion (accordion359)</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-scherer.html</t>
+          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/system-upgrades-rabun.html</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -15784,19 +15784,19 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Template 189</t>
+          <t>Template 57</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), unknown, Embed (embedVideo972), Tabs (tabs973), Accordion (accordion974), Embed (embedVideo975), Accordion (accordion976), hero977, Accordion (accordion978), Columns (columns979), Columns (columns980)</t>
+          <t>Header (header1), hero5, Columns (columns23), Embed (embedVideo361), Accordion (accordion362), Columns (columns363), Cards (cardsNoImages1603)</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-wansley.html</t>
+          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/thomson-vogtle.html</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -15816,24 +15816,24 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Template 190</t>
+          <t>Template 58</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), unknown, Embed (embedVideo981), Tabs (tabs982), Cards (cardsNoImages983), Cards (cardsNoImages984), Accordion (accordion985), hero986, Accordion (accordion987), Columns (columns988)</t>
+          <t>Header (header1), hero5, Columns (columns23), Embed (embedVideo364), Columns (columns365)</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-yates.html</t>
+          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/vegetation-easement-program.html</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -15848,24 +15848,24 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Template 191</t>
+          <t>Template 59</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), unknown, Columns (columns990), Columns (columns991), Table (striped, bordered, tableStripedBordered992), Columns (columns993), Embed (embedSocial994), Accordion (accordion995), Embed (embedVideo996), Accordion (accordion997), Cards (cardsNoImages998), Accordion (accordion999), unknown, Columns (columns1001), Embed (embedVideo1002), Accordion (accordion1003), Embed (embedSocial1004), Columns (columns1005), hero1006, Accordion (accordion1007), Table (striped, bordered, tableStripedBordered1008)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns366), hero367, Columns (columns368), Accordion (accordion369), hero370</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/austin-road.html</t>
+          <t>https://www.georgiapower.com/news-hub/innovation/electric-transportation-infrastructure.html</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -15880,24 +15880,24 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Template 49</t>
+          <t>Template 403</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns332)</t>
+          <t>Header (header1), Columns (columns23), Cards (cards1353)</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/briarlake.html</t>
+          <t>https://www.georgiapower.com/news-hub/innovation/georgia-power-enhances-streetlight-outage-reporting-tool.html</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -15912,24 +15912,24 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Template 50</t>
+          <t>Template 404</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns333)</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1354)</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/grid-investment-program.html</t>
+          <t>https://www.georgiapower.com/news-hub/innovation/georgia-power-improves-efficiency-reduces-costs-using-drone-technology.html</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -15944,24 +15944,24 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Template 51</t>
+          <t>Template 405</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Embed (embedVideo334), hero335, hero336, hero337, Columns (columns338), Accordion (accordion339), Accordion (accordion340), hero341</t>
+          <t>Header (header1), Columns (columns23), Embed (embedVideo1355)</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/meter-upgrade.html</t>
+          <t>https://www.georgiapower.com/news-hub/innovation/georgia-power-stands-firm-behind-safe-operations-at-plant-scherer.html</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -15976,24 +15976,24 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Template 55</t>
+          <t>Template 406</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Table (bordered, tableBordered355), hero356, unknown, Columns (columns358)</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1356)</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/northwest-substation.html</t>
+          <t>https://www.georgiapower.com/news-hub/innovation/georgia-powers-grid-investment-program-boosts-reliability-for-ellijay-residents-and-business.html</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16008,24 +16008,24 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Template 56</t>
+          <t>Template 407</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Accordion (accordion359)</t>
+          <t>Header (header1), Columns (columns23), Cards (cardsNoImages1357)</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/system-upgrades-rabun.html</t>
+          <t>https://www.georgiapower.com/news-hub/innovation/georgia-powers-largest-self-build-solar-project-helping-power-robins-air-force-base-through-regional-collaboration-in-central-georgia.html</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16040,19 +16040,19 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Template 57</t>
+          <t>Template 408</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Embed (embedVideo361), Accordion (accordion362), Columns (columns363), Cards (cardsNoImages1603)</t>
+          <t>Header (header1), Columns (columns23), Cards (cards1358)</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/thomson-vogtle.html</t>
+          <t>https://www.georgiapower.com/news-hub/innovation/the-crucial-role-of-battery-storage.html</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -16072,19 +16072,19 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Template 58</t>
+          <t>Template 409</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Embed (embedVideo364), Columns (columns365)</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1359)</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/grid-reliability/grid-improvements/grid-projects/vegetation-easement-program.html</t>
+          <t>https://www.georgiapower.com/news-hub/innovation/the-smart-grid-powering-the-future-of-energy.html</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -16104,24 +16104,24 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Template 59</t>
+          <t>Template 410</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns366), hero367, Columns (columns368), Accordion (accordion369), hero370</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1360)</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/innovation/electric-transportation-infrastructure.html</t>
+          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-bowen.html</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -16136,19 +16136,19 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Template 403</t>
+          <t>Template 184</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Cards (cards1353)</t>
+          <t>Header (header1), hero5, Columns (columns23), unknown, Embed (embedVideo924), Tabs (tabs925), Columns (columns926), hero927, Columns (columns928), Cards (cardsNoImages929), Accordion (accordion930), hero931, Columns (columns932)</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/innovation/georgia-power-enhances-streetlight-outage-reporting-tool.html</t>
+          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-hammond.html</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -16168,19 +16168,19 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Template 404</t>
+          <t>Template 185</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1354)</t>
+          <t>Header (header1), hero5, Columns (columns23), Cards (cardsNoImages933), Columns (columns934), Tabs (tabs935), Embed (embedVideo936), Columns (columns937), Embed (embedVideo938), Accordion (accordion939), unknown, Columns (columns941), unknown, Accordion (accordion943), hero944, Accordion (accordion945)</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/innovation/georgia-power-improves-efficiency-reduces-costs-using-drone-technology.html</t>
+          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-mcdonough.html</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -16200,19 +16200,19 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Template 405</t>
+          <t>Template 186</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Embed (embedVideo1355)</t>
+          <t>Header (header1), hero5, Columns (columns23), Embed (embedVideo946), Columns (columns947), Columns (columns948), Embed (embedSocial949), Accordion (accordion950), hero951, Accordion (accordion952), Embed (embedVideo953), Accordion (accordion954), Cards (cards955), Cards (cardsNoImages956)</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/innovation/georgia-power-stands-firm-behind-safe-operations-at-plant-scherer.html</t>
+          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-mcintosh.html</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -16232,19 +16232,19 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Template 406</t>
+          <t>Template 187</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1356)</t>
+          <t>Header (header1), hero5, Columns (columns23), hero957, Accordion (accordion958), Columns (columns959), hero960, Columns (columns961), Cards (cardsNoImages962), Accordion (accordion963), unknown, Accordion (accordion965), Columns (columns966)</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/innovation/georgia-powers-grid-investment-program-boosts-reliability-for-ellijay-residents-and-business.html</t>
+          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-mcmanus.html</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -16264,24 +16264,24 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Template 407</t>
+          <t>Template 188</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Cards (cardsNoImages1357)</t>
+          <t>Header (header1), hero5, Columns (columns23), Cards (cardsNoImages967), Accordion (accordion968), Cards (cardsNoImages969), Columns (columns970), Columns (columns971)</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/innovation/georgia-powers-largest-self-build-solar-project-helping-power-robins-air-force-base-through-regional-collaboration-in-central-georgia.html</t>
+          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-scherer.html</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -16296,19 +16296,19 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Template 408</t>
+          <t>Template 189</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Cards (cards1358)</t>
+          <t>Header (header1), hero5, Columns (columns23), unknown, Embed (embedVideo972), Tabs (tabs973), Accordion (accordion974), Embed (embedVideo975), Accordion (accordion976), hero977, Accordion (accordion978), Columns (columns979), Columns (columns980)</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/innovation/the-crucial-role-of-battery-storage.html</t>
+          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-wansley.html</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -16328,24 +16328,24 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Template 409</t>
+          <t>Template 190</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1359)</t>
+          <t>Header (header1), hero5, Columns (columns23), unknown, Embed (embedVideo981), Tabs (tabs982), Cards (cardsNoImages983), Cards (cardsNoImages984), Accordion (accordion985), hero986, Accordion (accordion987), Columns (columns988)</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/innovation/the-smart-grid-powering-the-future-of-energy.html</t>
+          <t>https://www.georgiapower.com/company/environmental-compliance/plant-list/plant-yates.html</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -16360,19 +16360,19 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Template 410</t>
+          <t>Template 191</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1360)</t>
+          <t>Header (header1), hero5, Columns (columns23), unknown, Columns (columns990), Columns (columns991), Table (striped, bordered, tableStripedBordered992), Columns (columns993), Embed (embedSocial994), Accordion (accordion995), Embed (embedVideo996), Accordion (accordion997), Cards (cardsNoImages998), Accordion (accordion999), unknown, Columns (columns1001), Embed (embedVideo1002), Accordion (accordion1003), Embed (embedSocial1004), Columns (columns1005), hero1006, Accordion (accordion1007), Table (striped, bordered, tableStripedBordered1008)</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/billing-and-rates.html</t>
+          <t>https://www.georgiapower.com/about/company/careers.html</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -16392,19 +16392,19 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Template 91</t>
+          <t>Template 8</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero482, Cards (cards483), Accordion (accordion484), Accordion (accordion485)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns68), unknown, Cards (cards70), Cards (cards71), Columns (columns72)</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/industry-services.html</t>
+          <t>https://www.georgiapower.com/about/company/facts-and-figures.html</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -16424,19 +16424,19 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Template 100</t>
+          <t>Template 10</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns22), Columns (columns23), hero511, Columns (columns512), hero513, Cards (cards514), Cards (cards515)</t>
+          <t>Header (header1), hero5, Columns (columns23), hero79, hero80, Columns (columns81), Columns (columns82), Columns (columns83), Columns (columns84), Accordion (accordion85), Columns (columns86), Table (striped, bordered, tableStripedBordered87), hero88</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/manage-your-businessaccount.html</t>
+          <t>https://www.georgiapower.com/about/company/filings.html</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -16456,19 +16456,19 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Template 115</t>
+          <t>Template 11</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns22), Columns (columns23), hero571, Columns (columns572), Cards (cards573)</t>
+          <t>Header (header1), hero5, Columns (columns23), Cards (cards89), Cards (cards90), Cards (cards91), Columns (columns92), Accordion (accordion93), Columns (columns271)</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/myenergy.html</t>
+          <t>https://www.georgiapower.com/about/company/helene-assistance.html</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -16488,19 +16488,19 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>Template 118</t>
+          <t>Template 16</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Header (header1), hero17, Columns (columns23), Columns (columns27), Columns (columns582), Embed (embedVideo583), hero584, Cards (cards585), Cards (cards586), Cards (cards587)</t>
+          <t>Header (header1), Search (search7), Columns (columns23), Embed (embedSocial119), hero120, Carousel (carousel121), hero122, Columns (columns123), hero124, Columns (columns125), Columns (columns126), Columns (columns127), Columns (columns128), hero589</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/payment-options.html</t>
+          <t>https://www.georgiapower.com/about/company/leadership.html</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -16520,19 +16520,19 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>Template 120</t>
+          <t>Template 19</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero596, hero597, Cards (cardsNoImages598), Table (bordered, tableBordered599), Cards (cardsNoImages600), Embed (embedVideo601), unknown</t>
+          <t>Header (header1), hero5, Columns (columns23), hero142, Columns (columns143), Cards (cards144), Cards (cards145), Cards (cards146), Cards (cards147), Cards (cards148), Embed (embedVideo149), hero589</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs.html</t>
+          <t>https://www.georgiapower.com/about/company/people-culture.html</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -16552,19 +16552,19 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>Template 122</t>
+          <t>Template 20</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Header (header1), Cards (cards4), hero5, Columns (columns23), Columns (columns27), hero607, Cards (cardsNoImages608), Columns (columns609), Cards (cards610)</t>
+          <t>Header (header1), hero5, Columns (columns23), Tabs (tabs150), unknown, Columns (columns152), Cards (cards153), Columns (columns154), Columns (columns155), Columns (columns156), Columns (columns157), Cards (cards158), Columns (columns159), unknown, Accordion (accordion161), hero589</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/save-money-and-energy.html</t>
+          <t>https://www.georgiapower.com/about/company/reliability-framework.html</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -16584,12 +16584,12 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>Template 175</t>
+          <t>Template 24</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns22), Columns (columns23), hero885, Cards (cards886), hero887</t>
+          <t>Header (header1), hero17, Columns (columns23), Columns (columns176), Columns (columns177), Columns (columns178), Columns (columns179), hero180, Columns (columns181), hero182, Cards (cards183), hero184, hero589</t>
         </is>
       </c>
     </row>
@@ -16820,12 +16820,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/company/careers.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/customer-rewards-faqs.html</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -16840,19 +16840,19 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>Template 8</t>
+          <t>Template 598</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns68), unknown, Cards (cards70), Cards (cards71), Columns (columns72)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Embed (embedVideo2001), Accordion (accordion2002)</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/company/facts-and-figures.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/electric-vehicles.html</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -16872,19 +16872,19 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>Template 10</t>
+          <t>Template 599</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), hero79, hero80, Columns (columns81), Columns (columns82), Columns (columns83), Columns (columns84), Accordion (accordion85), Columns (columns86), Table (striped, bordered, tableStripedBordered87), hero88</t>
+          <t>Header (header1), hero17, Columns (columns23), Tabs (tabs2003), hero2004, Cards (cards2005), Columns (columns2006), hero2007, Columns (columns2008), Cards (cards2009), Accordion (accordion2010)</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/company/filings.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-automation.html</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -16904,19 +16904,19 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>Template 11</t>
+          <t>Template 610</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Cards (cards89), Cards (cards90), Cards (cards91), Columns (columns92), Accordion (accordion93), Columns (columns271)</t>
+          <t>Header (header1), hero5, Columns (columns23), hero2059, Columns (columns2060), Cards (cards2061), Columns (columns2062), Columns (columns2063), Columns (columns2064), Columns (columns2065), Cards (cards2066)</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/company/helene-assistance.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs.html</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -16936,19 +16936,19 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Template 16</t>
+          <t>Template 611</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Header (header1), Search (search7), Columns (columns23), Embed (embedSocial119), hero120, Carousel (carousel121), hero122, Columns (columns123), hero124, Columns (columns125), Columns (columns126), Columns (columns127), Columns (columns128), hero589</t>
+          <t>Header (header1), Cards (cards11), hero17, Columns (columns23), hero2067, Cards (cards2068), Cards (cards2069), Columns (columns2070), Columns (columns2071)</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/company/leadership.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/residential-solar-solutions.html</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -16968,19 +16968,19 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>Template 19</t>
+          <t>Template 629</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), hero142, Columns (columns143), Cards (cards144), Cards (cards145), Cards (cards146), Cards (cards147), Cards (cards148), Embed (embedVideo149), hero589</t>
+          <t>Header (header1), hero17, Columns (columns23), Columns (columns2147), Cards (cards2148), Columns (columns2149), hero2150, Columns (columns2151), hero2152, Columns (columns2153), Accordion (accordion2154), Cards (cardsNoImages2155)</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/company/people-culture.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/surge-protection.html</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -17000,19 +17000,19 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>Template 20</t>
+          <t>Template 642</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Tabs (tabs150), unknown, Columns (columns152), Cards (cards153), Columns (columns154), Columns (columns155), Columns (columns156), Columns (columns157), Cards (cards158), Columns (columns159), unknown, Accordion (accordion161), hero589</t>
+          <t>Header (header1), hero5, Columns (columns23), Tabs (tabs2212), hero2213, Embed (embedVideo2214), Columns (columns2215), Columns (columns2216), Accordion (accordion2217)</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/company/reliability-framework.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/water-heater.html</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -17032,24 +17032,24 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>Template 24</t>
+          <t>Template 645</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Header (header1), hero17, Columns (columns23), Columns (columns176), Columns (columns177), Columns (columns178), Columns (columns179), hero180, Columns (columns181), hero182, Cards (cards183), hero184, hero589</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Cards (cards2227), Columns (columns2228)</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/customer-rewards-faqs.html</t>
+          <t>https://www.georgiapower.com/our-impact/lakes-rivers/buying-leasing.html</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -17064,19 +17064,19 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Template 598</t>
+          <t>Template 544</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Embed (embedVideo2001), Accordion (accordion2002)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns1750), Embed (embedVideo1751), Columns (columns1752), Accordion (accordion1753), Accordion (accordion1754), Columns (columns1755), Columns (columns1756)</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/electric-vehicles.html</t>
+          <t>https://www.georgiapower.com/our-impact/lakes-rivers/environmental-stewardship.html</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -17096,19 +17096,19 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>Template 599</t>
+          <t>Template 545</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>Header (header1), hero17, Columns (columns23), Tabs (tabs2003), hero2004, Cards (cards2005), Columns (columns2006), hero2007, Columns (columns2008), Cards (cards2009), Accordion (accordion2010)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns1757), hero1758, Columns (columns1759), Accordion (accordion1760), Columns (columns1761)</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-automation.html</t>
+          <t>https://www.georgiapower.com/our-impact/lakes-rivers/faqs-resources.html</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -17128,19 +17128,19 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>Template 610</t>
+          <t>Template 546</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), hero2059, Columns (columns2060), Cards (cards2061), Columns (columns2062), Columns (columns2063), Columns (columns2064), Columns (columns2065), Cards (cards2066)</t>
+          <t>Header (header1), hero5, Columns (columns23), Table (striped, bordered, tableStripedBordered1762), Accordion (accordion1763)</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/home-energy-efficiency-programs.html</t>
+          <t>https://www.georgiapower.com/our-impact/lakes-rivers/our-lakes.html</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -17160,19 +17160,19 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>Template 611</t>
+          <t>Template 547</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Header (header1), Cards (cards11), hero17, Columns (columns23), hero2067, Cards (cards2068), Cards (cards2069), Columns (columns2070), Columns (columns2071)</t>
+          <t>Header (header1), hero5, Columns (columns23), Tabs (tabs1764), Columns (columns1765), hero1766, hero1767, Cards (cards1768), hero1769, Columns (columns1770), Columns (columns1771)</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/residential-solar-solutions.html</t>
+          <t>https://www.georgiapower.com/our-impact/lakes-rivers/shoreline-management.html</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -17192,19 +17192,19 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>Template 629</t>
+          <t>Template 552</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Header (header1), hero17, Columns (columns23), Columns (columns2147), Cards (cards2148), Columns (columns2149), hero2150, Columns (columns2151), hero2152, Columns (columns2153), Accordion (accordion2154), Cards (cardsNoImages2155)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns692), Tabs (tabs1800), unknown, Accordion (accordion1802), Accordion (accordion1803), Accordion (accordion1804), Accordion (accordion1805), Cards (cards1806)</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/surge-protection.html</t>
+          <t>https://www.georgiapower.com/our-impact/lakes-rivers/water-levels.html</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -17224,19 +17224,19 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>Template 642</t>
+          <t>Template 553</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Tabs (tabs2212), hero2213, Embed (embedVideo2214), Columns (columns2215), Columns (columns2216), Accordion (accordion2217)</t>
+          <t>Header (header1), hero5, Columns (columns23), hero589, Tabs (tabs1773), Table (striped, bordered, tableStripedBordered1808)</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy/products-programs/water-heater.html</t>
+          <t>https://www.georgiapower.com/our-impact/lakes-rivers/water-safety.html</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -17256,19 +17256,19 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>Template 645</t>
+          <t>Template 554</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Cards (cards2227), Columns (columns2228)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns582), Cards (cardsNoImages1603), Columns (columns1809), Columns (columns1810), Cards (cards1811), Columns (columns1812), Accordion (accordion1813), Columns (columns1814)</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/our-impact/lakes-rivers/buying-leasing.html</t>
+          <t>https://www.georgiapower.com/business/billing-and-rates.html</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -17288,19 +17288,19 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Template 544</t>
+          <t>Template 91</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns1750), Embed (embedVideo1751), Columns (columns1752), Accordion (accordion1753), Accordion (accordion1754), Columns (columns1755), Columns (columns1756)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero482, Cards (cards483), Accordion (accordion484), Accordion (accordion485)</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/our-impact/lakes-rivers/environmental-stewardship.html</t>
+          <t>https://www.georgiapower.com/business/industry-services.html</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -17320,19 +17320,19 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>Template 545</t>
+          <t>Template 100</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns1757), hero1758, Columns (columns1759), Accordion (accordion1760), Columns (columns1761)</t>
+          <t>Header (header1), hero5, Columns (columns22), Columns (columns23), hero511, Columns (columns512), hero513, Cards (cards514), Cards (cards515)</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/our-impact/lakes-rivers/faqs-resources.html</t>
+          <t>https://www.georgiapower.com/business/manage-your-businessaccount.html</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -17352,19 +17352,19 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>Template 546</t>
+          <t>Template 115</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Table (striped, bordered, tableStripedBordered1762), Accordion (accordion1763)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns22), Columns (columns23), hero571, Columns (columns572), Cards (cards573)</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/our-impact/lakes-rivers/our-lakes.html</t>
+          <t>https://www.georgiapower.com/business/myenergy.html</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -17384,19 +17384,19 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>Template 547</t>
+          <t>Template 118</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Tabs (tabs1764), Columns (columns1765), hero1766, hero1767, Cards (cards1768), hero1769, Columns (columns1770), Columns (columns1771)</t>
+          <t>Header (header1), hero17, Columns (columns23), Columns (columns27), Columns (columns582), Embed (embedVideo583), hero584, Cards (cards585), Cards (cards586), Cards (cards587)</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/our-impact/lakes-rivers/shoreline-management.html</t>
+          <t>https://www.georgiapower.com/business/payment-options.html</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -17416,19 +17416,19 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>Template 552</t>
+          <t>Template 120</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns692), Tabs (tabs1800), unknown, Accordion (accordion1802), Accordion (accordion1803), Accordion (accordion1804), Accordion (accordion1805), Cards (cards1806)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), hero596, hero597, Cards (cardsNoImages598), Table (bordered, tableBordered599), Cards (cardsNoImages600), Embed (embedVideo601), unknown</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/our-impact/lakes-rivers/water-levels.html</t>
+          <t>https://www.georgiapower.com/business/products-programs.html</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -17448,19 +17448,19 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>Template 553</t>
+          <t>Template 122</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), hero589, Tabs (tabs1773), Table (striped, bordered, tableStripedBordered1808)</t>
+          <t>Header (header1), Cards (cards4), hero5, Columns (columns23), Columns (columns27), hero607, Cards (cardsNoImages608), Columns (columns609), Cards (cards610)</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/our-impact/lakes-rivers/water-safety.html</t>
+          <t>https://www.georgiapower.com/business/save-money-and-energy.html</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -17480,24 +17480,24 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>Template 554</t>
+          <t>Template 175</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns582), Cards (cardsNoImages1603), Columns (columns1809), Columns (columns1810), Cards (cards1811), Columns (columns1812), Accordion (accordion1813), Columns (columns1814)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns22), Columns (columns23), hero885, Cards (cards886), hero887</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/billing-and-rates/billing-options.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-safety/georgia-power-continues-response-to-tropical-storm-debby.html</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -17512,24 +17512,24 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>Template 92</t>
+          <t>Template 502</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns22), Columns (columns23), Video (video486), Cards (cards487), Cards (cards488), Columns (columns489), Cards (cardsNoImages490)</t>
+          <t>Header (header1), Columns (columns23), hero1499</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/billing-and-rates/business-rates.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-safety/georgia-power-mobilizes-restoration-teams-as-hurricane-debby-beg.html</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -17544,24 +17544,24 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>Template 94</t>
+          <t>Template 503</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), hero495, Cards (cards496), Accordion (accordion497), Cards (cards498)</t>
+          <t>Header (header1), Columns (columns23), hero1500</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/billing-and-rates/electronic-data-interchange.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-safety/georgia-power-restoration-efforts-entering-final-stages.html</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -17576,24 +17576,24 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>Template 96</t>
+          <t>Template 504</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), unknown, Columns (columns502), Cards (cardsNoImages1603)</t>
+          <t>Header (header1), Columns (columns23), hero1501</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/billing-and-rates/power-and-light-calc.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-safety/make-sure-your-home-is-ready-to-receive-power.html</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -17608,24 +17608,24 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>Template 97</t>
+          <t>Template 505</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), hero503, unknown, Cards (cards505)</t>
+          <t>Header (header1), Columns (columns23), hero1502</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/billing-and-rates/power-and-light-tariffs.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-safety/savannah-mayor-and-city-manager-visit-local-staging-site.html</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -17640,24 +17640,24 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>Template 98</t>
+          <t>Template 506</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns506), Accordion (accordion507), Accordion (accordion508), Cards (cards509)</t>
+          <t>Header (header1), Columns (columns23), Cards (cardsNoImages1503)</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/billing-and-rates/rate-advisor.html</t>
+          <t>https://www.georgiapower.com/news-hub/weather-safety/strategy-and-support-georgia-power-responds-to-a-historic-storm.html</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>CRAWL</t>
+          <t>SITEMAPS</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -17672,24 +17672,24 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Template 99</t>
+          <t>Template 507</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns19), Columns (columns23), hero510</t>
+          <t>Header (header1), Columns (columns23), Columns (columns1504)</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-safety/georgia-power-continues-response-to-tropical-storm-debby.html</t>
+          <t>https://www.georgiapower.com/business/billing-and-rates/billing-options.html</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -17704,24 +17704,24 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>Template 502</t>
+          <t>Template 92</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1499</t>
+          <t>Header (header1), hero5, Columns (columns22), Columns (columns23), Video (video486), Cards (cards487), Cards (cards488), Columns (columns489), Cards (cardsNoImages490)</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-safety/georgia-power-mobilizes-restoration-teams-as-hurricane-debby-beg.html</t>
+          <t>https://www.georgiapower.com/business/billing-and-rates/business-rates.html</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -17736,24 +17736,24 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>Template 503</t>
+          <t>Template 94</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1500</t>
+          <t>Header (header1), hero5, Columns (columns23), hero495, Cards (cards496), Accordion (accordion497), Cards (cards498)</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-safety/georgia-power-restoration-efforts-entering-final-stages.html</t>
+          <t>https://www.georgiapower.com/business/billing-and-rates/electronic-data-interchange.html</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -17768,24 +17768,24 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>Template 504</t>
+          <t>Template 96</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1501</t>
+          <t>Header (header1), hero5, Columns (columns23), unknown, Columns (columns502), Cards (cardsNoImages1603)</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-safety/make-sure-your-home-is-ready-to-receive-power.html</t>
+          <t>https://www.georgiapower.com/business/billing-and-rates/power-and-light-calc.html</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -17800,24 +17800,24 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>Template 505</t>
+          <t>Template 97</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1502</t>
+          <t>Header (header1), hero5, Columns (columns23), hero503, unknown, Cards (cards505)</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-safety/savannah-mayor-and-city-manager-visit-local-staging-site.html</t>
+          <t>https://www.georgiapower.com/business/billing-and-rates/power-and-light-tariffs.html</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -17832,24 +17832,24 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>Template 506</t>
+          <t>Template 98</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Cards (cardsNoImages1503)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns506), Accordion (accordion507), Accordion (accordion508), Cards (cards509)</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/news-hub/weather-safety/strategy-and-support-georgia-power-responds-to-a-historic-storm.html</t>
+          <t>https://www.georgiapower.com/business/billing-and-rates/rate-advisor.html</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>SITEMAPS</t>
+          <t>CRAWL</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -17864,12 +17864,12 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>Template 507</t>
+          <t>Template 99</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), Columns (columns1504)</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns19), Columns (columns23), hero510</t>
         </is>
       </c>
     </row>
@@ -18068,7 +18068,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs/business-solutions/electric-transportation-business-programs/contact-et-market-specialist.html</t>
+          <t>https://www.georgiapower.com/about/energy/sources/coal.html</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -18088,19 +18088,19 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>Template 110</t>
+          <t>Template 37</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>Header (header1), hero17, Columns (columns23), unknown</t>
+          <t>Header (header1), Columns (columns23), hero270, Columns (columns271), Columns (columns272), Columns (columns273), Columns (columns274), Columns (columns275), Columns (columns276), Accordion (accordion277), hero589</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs/business-solutions/electric-transportation-business-programs/electric-vehicle-charger-rebate.html</t>
+          <t>https://www.georgiapower.com/about/energy/sources/hydro.html</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -18120,19 +18120,19 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>Template 144</t>
+          <t>Template 38</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns719), Columns (columns720), Columns (columns721), hero722</t>
+          <t>Header (header1), Columns (columns23), hero278, Tabs (tabs279), Columns (columns280), Columns (columns281), Columns (columns282), Columns (columns283), Accordion (accordion284), hero589</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs/business-solutions/electric-transportation-business-programs/ev-grant-application-form.html</t>
+          <t>https://www.georgiapower.com/about/energy/sources/natural-gas.html</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -18152,19 +18152,19 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>Template 145</t>
+          <t>Template 42</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), unknown</t>
+          <t>Header (header1), Columns (columns23), hero293, Tabs (tabs294), hero295, Columns (columns296), Columns (columns297), Columns (columns298), hero589</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs/business-solutions/electric-transportation-business-programs/make-ready.html</t>
+          <t>https://www.georgiapower.com/about/energy/sources/nuclear.html</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -18184,19 +18184,19 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>Template 146</t>
+          <t>Template 43</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), hero589, Columns (columns723), Columns (columns724), Columns (columns725), Accordion (accordion726), Columns (columns727), Accordion (accordion728), Columns (columns729)</t>
+          <t>Header (header1), Columns (columns23), hero299, Tabs (tabs300), Columns (columns301), Columns (columns302), Columns (columns303), hero304, Cards (cards305), Accordion (accordion306), hero589</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs/business-solutions/electric-transportation-business-programs/resources.html</t>
+          <t>https://www.georgiapower.com/about/energy/sources/solar.html</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -18216,19 +18216,19 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>Template 147</t>
+          <t>Template 44</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns730), hero731, Columns (columns732), Columns (columns733), Cards (cards734), Accordion (accordion735), Accordion (accordion736), hero737, Columns (columns738), hero739, Accordion (accordion740), Accordion (accordion741), Accordion (accordion742), Accordion (accordion743), Accordion (accordion744), Accordion (accordion745)</t>
+          <t>Header (header1), Columns (columns23), hero307, Tabs (tabs308), Columns (columns309), Columns (columns310), Table (table311), hero312, Cards (cards313), Accordion (accordion314)</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/billing-and-rate-plans.html</t>
+          <t>https://www.georgiapower.com/about/safety/electric-safety.html</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -18248,19 +18248,19 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>Template 557</t>
+          <t>Template 70</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>Header (header1), Cards (cards11), hero17, Columns (columns22), Columns (columns23), Cards (cards1826), Cards (cards1827)</t>
+          <t>Header (header1), hero17, Columns (columns22), Columns (columns23), Cards (cardsNoImages410), hero411, Cards (cards412)</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/manage-your-account.html</t>
+          <t>https://www.georgiapower.com/about/safety/fraud-protection.html</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -18280,19 +18280,19 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>Template 585</t>
+          <t>Template 77</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Header (header1), Cards (cards11), hero17, Columns (columns22), Columns (columns23), Columns (columns1930), Cards (cards1931), Accordion (accordion1932), Columns (columns1933), Columns (columns1934), Accordion (accordion1935), Accordion (accordion1936), Columns (columns1937)</t>
+          <t>Header (header1), hero17, Columns (columns23), Columns (columns426), Cards (cards427), Accordion (accordion428), Accordion (accordion429), Accordion (accordion2094)</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/myenergy.html</t>
+          <t>https://www.georgiapower.com/about/safety/nuclear-safety.html</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -18312,19 +18312,19 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>Template 588</t>
+          <t>Template 80</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero1946, hero1947, Cards (cards1948), Embed (embedVideo1949), Columns (columns1950), Columns (columns1951), Embed (embedVideo1952), Columns (columns1953)</t>
+          <t>Header (header1), hero17, Columns (columns23), Cards (cardsNoImages1603)</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/payment-options.html</t>
+          <t>https://www.georgiapower.com/about/safety/outages-storm-center.html</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -18344,19 +18344,19 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>Template 589</t>
+          <t>Template 81</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Header (header1), Cards (cards11), hero17, Columns (columns22), Columns (columns23), Cards (cardsNoImages1954), Accordion (accordion1955), hero2131</t>
+          <t>Header (header1), hero17, Columns (columns23), Columns (columns431), Cards (cardsNoImages432), Cards (cards433), Accordion (accordion434), Carousel (carousel435), Columns (columns436), Accordion (accordion437), Columns (columns438), Embed (embedVideo439), hero589</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/residential/save-money-and-energy.html</t>
+          <t>https://www.georgiapower.com/about/safety/report-energy-theft.html</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -18376,19 +18376,19 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>Template 591</t>
+          <t>Template 87</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Header (header1), Cards (cards11), hero17, Columns (columns23), hero1960, Cards (cards1961), Cards (cards1962), Columns (columns1963), hero1964</t>
+          <t>Header (header1), hero5, Columns (columns23), Cards (cardsNoImages468)</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/safety/electric-safety.html</t>
+          <t>https://www.georgiapower.com/business/products-programs/business-solutions/electric-transportation-business-programs/contact-et-market-specialist.html</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -18408,19 +18408,19 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>Template 70</t>
+          <t>Template 110</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>Header (header1), hero17, Columns (columns22), Columns (columns23), Cards (cardsNoImages410), hero411, Cards (cards412)</t>
+          <t>Header (header1), hero17, Columns (columns23), unknown</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/safety/fraud-protection.html</t>
+          <t>https://www.georgiapower.com/business/products-programs/business-solutions/electric-transportation-business-programs/electric-vehicle-charger-rebate.html</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -18440,19 +18440,19 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>Template 77</t>
+          <t>Template 144</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>Header (header1), hero17, Columns (columns23), Columns (columns426), Cards (cards427), Accordion (accordion428), Accordion (accordion429), Accordion (accordion2094)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns719), Columns (columns720), Columns (columns721), hero722</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/safety/nuclear-safety.html</t>
+          <t>https://www.georgiapower.com/business/products-programs/business-solutions/electric-transportation-business-programs/ev-grant-application-form.html</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -18472,19 +18472,19 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>Template 80</t>
+          <t>Template 145</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>Header (header1), hero17, Columns (columns23), Cards (cardsNoImages1603)</t>
+          <t>Header (header1), hero5, Columns (columns23), unknown</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/safety/outages-storm-center.html</t>
+          <t>https://www.georgiapower.com/business/products-programs/business-solutions/electric-transportation-business-programs/make-ready.html</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -18504,19 +18504,19 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>Template 81</t>
+          <t>Template 146</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>Header (header1), hero17, Columns (columns23), Columns (columns431), Cards (cardsNoImages432), Cards (cards433), Accordion (accordion434), Carousel (carousel435), Columns (columns436), Accordion (accordion437), Columns (columns438), Embed (embedVideo439), hero589</t>
+          <t>Header (header1), hero5, Columns (columns23), hero589, Columns (columns723), Columns (columns724), Columns (columns725), Accordion (accordion726), Columns (columns727), Accordion (accordion728), Columns (columns729)</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/safety/report-energy-theft.html</t>
+          <t>https://www.georgiapower.com/business/products-programs/business-solutions/electric-transportation-business-programs/resources.html</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -18536,19 +18536,19 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>Template 87</t>
+          <t>Template 147</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Cards (cardsNoImages468)</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns730), hero731, Columns (columns732), Columns (columns733), Cards (cards734), Accordion (accordion735), Accordion (accordion736), hero737, Columns (columns738), hero739, Accordion (accordion740), Accordion (accordion741), Accordion (accordion742), Accordion (accordion743), Accordion (accordion744), Accordion (accordion745)</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/energy/sources/coal.html</t>
+          <t>https://www.georgiapower.com/business/products-programs/utility-services/advanced-metering-infrastructure.html</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -18568,19 +18568,19 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>Template 37</t>
+          <t>Template 170</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero270, Columns (columns271), Columns (columns272), Columns (columns273), Columns (columns274), Columns (columns275), Columns (columns276), Accordion (accordion277), hero589</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns854), Columns (columns855), Columns (columns856), Columns (columns857), Columns (columns858), Accordion (accordion859), Embed (embedVideo1016)</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/energy/sources/hydro.html</t>
+          <t>https://www.georgiapower.com/business/products-programs/utility-services/energy-services.html</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -18600,19 +18600,19 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>Template 38</t>
+          <t>Template 171</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero278, Tabs (tabs279), Columns (columns280), Columns (columns281), Columns (columns282), Columns (columns283), Accordion (accordion284), hero589</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Columns (columns861), Columns (columns862), Columns (columns863), Accordion (accordion864)</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/energy/sources/natural-gas.html</t>
+          <t>https://www.georgiapower.com/business/products-programs/utility-services/telecom-colocation.html</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -18632,19 +18632,19 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>Template 42</t>
+          <t>Template 173</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero293, Tabs (tabs294), hero295, Columns (columns296), Columns (columns297), Columns (columns298), hero589</t>
+          <t>Header (header1), hero5, Columns (columns23), Columns (columns871), Columns (columns872), Carousel (carousel873), Columns (columns874), Columns (columns875), Columns (columns876)</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/energy/sources/nuclear.html</t>
+          <t>https://www.georgiapower.com/business/products-programs/utility-services/transmission-and-distribution-services.html</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -18664,19 +18664,19 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>Template 43</t>
+          <t>Template 174</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero299, Tabs (tabs300), Columns (columns301), Columns (columns302), Columns (columns303), hero304, Cards (cards305), Accordion (accordion306), hero589</t>
+          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), unknown, Columns (columns879), Columns (columns880), Columns (columns881), Columns (columns882), Embed (embedVideo1016)</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/about/energy/sources/solar.html</t>
+          <t>https://www.georgiapower.com/business/products-programs/utility-services/utility-services-contact-us.html</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -18696,19 +18696,19 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>Template 44</t>
+          <t>Template 110</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>Header (header1), Columns (columns23), hero307, Tabs (tabs308), Columns (columns309), Columns (columns310), Table (table311), hero312, Cards (cards313), Accordion (accordion314)</t>
+          <t>Header (header1), hero17, Columns (columns23), unknown</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs/utility-services/advanced-metering-infrastructure.html</t>
+          <t>https://www.georgiapower.com/residential/billing-and-rate-plans.html</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -18728,19 +18728,19 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>Template 170</t>
+          <t>Template 557</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns854), Columns (columns855), Columns (columns856), Columns (columns857), Columns (columns858), Accordion (accordion859), Embed (embedVideo1016)</t>
+          <t>Header (header1), Cards (cards11), hero17, Columns (columns22), Columns (columns23), Cards (cards1826), Cards (cards1827)</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs/utility-services/energy-services.html</t>
+          <t>https://www.georgiapower.com/residential/manage-your-account.html</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -18760,19 +18760,19 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>Template 171</t>
+          <t>Template 585</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), Columns (columns861), Columns (columns862), Columns (columns863), Accordion (accordion864)</t>
+          <t>Header (header1), Cards (cards11), hero17, Columns (columns22), Columns (columns23), Columns (columns1930), Cards (cards1931), Accordion (accordion1932), Columns (columns1933), Columns (columns1934), Accordion (accordion1935), Accordion (accordion1936), Columns (columns1937)</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs/utility-services/telecom-colocation.html</t>
+          <t>https://www.georgiapower.com/residential/myenergy.html</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -18792,19 +18792,19 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>Template 173</t>
+          <t>Template 588</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Columns (columns23), Columns (columns871), Columns (columns872), Carousel (carousel873), Columns (columns874), Columns (columns875), Columns (columns876)</t>
+          <t>Header (header1), Columns (columns23), hero1946, hero1947, Cards (cards1948), Embed (embedVideo1949), Columns (columns1950), Columns (columns1951), Embed (embedVideo1952), Columns (columns1953)</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs/utility-services/transmission-and-distribution-services.html</t>
+          <t>https://www.georgiapower.com/residential/payment-options.html</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -18824,19 +18824,19 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>Template 174</t>
+          <t>Template 589</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>Header (header1), hero5, Cards (cards11), Columns (columns23), unknown, Columns (columns879), Columns (columns880), Columns (columns881), Columns (columns882), Embed (embedVideo1016)</t>
+          <t>Header (header1), Cards (cards11), hero17, Columns (columns22), Columns (columns23), Cards (cardsNoImages1954), Accordion (accordion1955), hero2131</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>https://www.georgiapower.com/business/products-programs/utility-services/utility-services-contact-us.html</t>
+          <t>https://www.georgiapower.com/residential/save-money-and-energy.html</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -18856,12 +18856,12 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>Template 110</t>
+          <t>Template 591</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>Header (header1), hero17, Columns (columns23), unknown</t>
+          <t>Header (header1), Cards (cards11), hero17, Columns (columns23), hero1960, Cards (cards1961), Cards (cards1962), Columns (columns1963), hero1964</t>
         </is>
       </c>
     </row>
